--- a/LubanConfig/Datas/LaunchConfig.xlsx
+++ b/LubanConfig/Datas/LaunchConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -51,6 +51,9 @@
     <t>VideoName</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
     <t>启动视频</t>
   </si>
   <si>
+    <t>默认语言</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
   </si>
   <si>
     <t>Hotfix.dll</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -124,14 +133,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,12 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,48 +626,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,119 +680,113 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1169,7 +1156,7 @@
     <col min="11" max="11" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,104 +1190,116 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:10">
+    <row r="4" s="1" customFormat="1" spans="2:12">
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
